--- a/preyincreasing.xlsx
+++ b/preyincreasing.xlsx
@@ -15,10 +15,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Cloudlet</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -34,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +61,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,3512 +377,3521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>30</v>
-      </c>
-      <c r="B1">
-        <v>50</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>73.817541617744197</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>14.8741341189575</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>25.1951121306533</v>
+        <v>73.817541617744197</v>
       </c>
       <c r="B3">
-        <v>23.9655853263646</v>
+        <v>14.8741341189575</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>84.004004291867901</v>
+        <v>25.1951121306533</v>
       </c>
       <c r="B4">
-        <v>42.7032731471609</v>
+        <v>23.9655853263646</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>36.78371423598</v>
+        <v>84.004004291867901</v>
       </c>
       <c r="B5">
-        <v>12.972438569091</v>
+        <v>42.7032731471609</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>37.240524929804799</v>
+        <v>36.78371423598</v>
       </c>
       <c r="B6">
-        <v>58.283846640154898</v>
+        <v>12.972438569091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>63.622738189051802</v>
+        <v>37.240524929804799</v>
       </c>
       <c r="B7">
-        <v>12.5678638937079</v>
+        <v>58.283846640154898</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>24.356846176715401</v>
+        <v>63.622738189051802</v>
       </c>
       <c r="B8">
-        <v>30.050972724813999</v>
+        <v>12.5678638937079</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>89.469206476900098</v>
+        <v>24.356846176715401</v>
       </c>
       <c r="B9">
-        <v>30.170278859954099</v>
+        <v>30.050972724813999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>31.528799026494301</v>
+        <v>89.469206476900098</v>
       </c>
       <c r="B10">
-        <v>14.929873450736</v>
+        <v>30.170278859954099</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>49.803195426882297</v>
+        <v>31.528799026494301</v>
       </c>
       <c r="B11">
-        <v>62.494173745034601</v>
+        <v>14.929873450736</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>53.5683527537307</v>
+        <v>49.803195426882297</v>
       </c>
       <c r="B12">
-        <v>11.460040661723401</v>
+        <v>62.494173745034601</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>25.1323470637087</v>
+        <v>53.5683527537307</v>
       </c>
       <c r="B13">
-        <v>38.348982615910103</v>
+        <v>11.460040661723401</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>85.686157884138893</v>
+        <v>25.1323470637087</v>
       </c>
       <c r="B14">
-        <v>20.729932973573501</v>
+        <v>38.348982615910103</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>27.623482476187</v>
+        <v>85.686157884138893</v>
       </c>
       <c r="B15">
-        <v>18.147476994780799</v>
+        <v>20.729932973573501</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>67.182867212011104</v>
+        <v>27.623482476187</v>
       </c>
       <c r="B16">
-        <v>57.755977585202103</v>
+        <v>18.147476994780799</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>44.615174566650197</v>
+        <v>67.182867212011104</v>
       </c>
       <c r="B17">
-        <v>11.5109206284297</v>
+        <v>57.755977585202103</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>28.599273591919498</v>
+        <v>44.615174566650197</v>
       </c>
       <c r="B18">
-        <v>48.253125872955003</v>
+        <v>11.5109206284297</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>76.066700153921104</v>
+        <v>28.599273591919498</v>
       </c>
       <c r="B19">
-        <v>15.352282277748399</v>
+        <v>48.253125872955003</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>25.0424966884238</v>
+        <v>76.066700153921104</v>
       </c>
       <c r="B20">
-        <v>22.873915274311301</v>
+        <v>15.352282277748399</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>83.557988234646302</v>
+        <v>25.0424966884238</v>
       </c>
       <c r="B21">
-        <v>44.784415246916701</v>
+        <v>22.873915274311301</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>37.2953438141841</v>
+        <v>83.557988234646302</v>
       </c>
       <c r="B22">
-        <v>12.5161484792672</v>
+        <v>44.784415246916701</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>35.678845615475403</v>
+        <v>37.2953438141841</v>
       </c>
       <c r="B23">
-        <v>58.115776385706504</v>
+        <v>12.5161484792672</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>64.660231800544395</v>
+        <v>35.678845615475403</v>
       </c>
       <c r="B24">
-        <v>12.3117844166577</v>
+        <v>58.115776385706504</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>23.953847896879001</v>
+        <v>64.660231800544395</v>
       </c>
       <c r="B25">
-        <v>29.563123591287699</v>
+        <v>12.3117844166577</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>90.320841381327895</v>
+        <v>23.953847896879001</v>
       </c>
       <c r="B26">
-        <v>30.560393687707101</v>
+        <v>29.563123591287699</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>31.372306811874601</v>
+        <v>90.320841381327895</v>
       </c>
       <c r="B27">
-        <v>14.6250871046732</v>
+        <v>30.560393687707101</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>49.455402133791701</v>
+        <v>31.372306811874601</v>
       </c>
       <c r="B28">
-        <v>63.287789759693503</v>
+        <v>14.6250871046732</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>53.4481678436834</v>
+        <v>49.455402133791701</v>
       </c>
       <c r="B29">
-        <v>11.2479634672468</v>
+        <v>63.287789759693503</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>24.855544971631701</v>
+        <v>53.4481678436834</v>
       </c>
       <c r="B30">
-        <v>38.619319472503797</v>
+        <v>11.2479634672468</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>85.906476195313203</v>
+        <v>24.855544971631701</v>
       </c>
       <c r="B31">
-        <v>20.224691653468199</v>
+        <v>38.619319472503797</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>27.218358054199999</v>
+        <v>85.906476195313203</v>
       </c>
       <c r="B32">
-        <v>18.2060661207307</v>
+        <v>20.224691653468199</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>68.686143685118907</v>
+        <v>27.218358054199999</v>
       </c>
       <c r="B33">
-        <v>57.526405700007203</v>
+        <v>18.2060661207307</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>43.857433082162103</v>
+        <v>68.686143685118907</v>
       </c>
       <c r="B34">
-        <v>11.428462225945401</v>
+        <v>57.526405700007203</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>28.853230793185102</v>
+        <v>43.857433082162103</v>
       </c>
       <c r="B35">
-        <v>49.328637336804</v>
+        <v>11.428462225945401</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>75.131269468631302</v>
+        <v>28.853230793185102</v>
       </c>
       <c r="B36">
-        <v>14.8066016894415</v>
+        <v>49.328637336804</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>24.787850728683399</v>
+        <v>75.131269468631302</v>
       </c>
       <c r="B37">
-        <v>23.460129863270001</v>
+        <v>14.8066016894415</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>84.955172966624701</v>
+        <v>24.787850728683399</v>
       </c>
       <c r="B38">
-        <v>43.226059914508802</v>
+        <v>23.460129863270001</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>36.583025549095098</v>
+        <v>84.955172966624701</v>
       </c>
       <c r="B39">
-        <v>12.7134401692698</v>
+        <v>43.226059914508802</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>36.894236331442798</v>
+        <v>36.583025549095098</v>
       </c>
       <c r="B40">
-        <v>58.9860266969037</v>
+        <v>12.7134401692698</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>63.375595340084502</v>
+        <v>36.894236331442798</v>
       </c>
       <c r="B41">
-        <v>12.153191217810599</v>
+        <v>58.9860266969037</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>24.012249207470699</v>
+        <v>63.375595340084502</v>
       </c>
       <c r="B42">
-        <v>30.425520434510201</v>
+        <v>12.153191217810599</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>90.171206129017094</v>
+        <v>24.012249207470699</v>
       </c>
       <c r="B43">
-        <v>29.316702931090401</v>
+        <v>30.425520434510201</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>30.922282270786301</v>
+        <v>90.171206129017094</v>
       </c>
       <c r="B44">
-        <v>14.963051182601401</v>
+        <v>29.316702931090401</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>51.154068660566999</v>
+        <v>30.922282270786301</v>
       </c>
       <c r="B45">
-        <v>63.232014293268897</v>
+        <v>14.963051182601401</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>52.500184294902702</v>
+        <v>51.154068660566999</v>
       </c>
       <c r="B46">
-        <v>11.2011089124188</v>
+        <v>63.232014293268897</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>25.042416631788701</v>
+        <v>52.500184294902702</v>
       </c>
       <c r="B47">
-        <v>39.500492042873702</v>
+        <v>11.2011089124188</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>85.144413714724607</v>
+        <v>25.042416631788701</v>
       </c>
       <c r="B48">
-        <v>19.5810438161412</v>
+        <v>39.500492042873702</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>26.9198895283638</v>
+        <v>85.144413714724607</v>
       </c>
       <c r="B49">
-        <v>18.588734013873101</v>
+        <v>19.5810438161412</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>70.426787233989899</v>
+        <v>26.9198895283638</v>
       </c>
       <c r="B50">
-        <v>56.526205745530703</v>
+        <v>18.588734013873101</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>43.083962556764902</v>
+        <v>70.426787233989899</v>
       </c>
       <c r="B51">
-        <v>11.5409851367553</v>
+        <v>56.526205745530703</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>29.375041704672501</v>
+        <v>43.083962556764902</v>
       </c>
       <c r="B52">
-        <v>50.318052194003897</v>
+        <v>11.5409851367553</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>74.055537467452794</v>
+        <v>29.375041704672501</v>
       </c>
       <c r="B53">
-        <v>14.478947651940601</v>
+        <v>50.318052194003897</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>24.5415768029238</v>
+        <v>74.055537467452794</v>
       </c>
       <c r="B54">
-        <v>23.938032710482901</v>
+        <v>14.478947651940601</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>86.216932603999396</v>
+        <v>24.5415768029238</v>
       </c>
       <c r="B55">
-        <v>41.850806076300003</v>
+        <v>23.938032710482901</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>35.924789239518397</v>
+        <v>86.216932603999396</v>
       </c>
       <c r="B56">
-        <v>12.8413562879406</v>
+        <v>41.850806076300003</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>38.292413695446299</v>
+        <v>35.924789239518397</v>
       </c>
       <c r="B57">
-        <v>59.688300386637501</v>
+        <v>12.8413562879406</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>62.142067424614901</v>
+        <v>38.292413695446299</v>
       </c>
       <c r="B58">
-        <v>12.0623524997439</v>
+        <v>59.688300386637501</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>24.091025101676401</v>
+        <v>62.142067424614901</v>
       </c>
       <c r="B59">
-        <v>31.290724350505599</v>
+        <v>12.0623524997439</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>89.897094094090207</v>
+        <v>24.091025101676401</v>
       </c>
       <c r="B60">
-        <v>28.1698445745151</v>
+        <v>31.290724350505599</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>30.6420055409694</v>
+        <v>89.897094094090207</v>
       </c>
       <c r="B61">
-        <v>15.3134103904826</v>
+        <v>28.1698445745151</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>52.6082770489203</v>
+        <v>30.6420055409694</v>
       </c>
       <c r="B62">
-        <v>62.632918761091098</v>
+        <v>15.3134103904826</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>51.789476532476399</v>
+        <v>52.6082770489203</v>
       </c>
       <c r="B63">
-        <v>11.318462719252199</v>
+        <v>62.632918761091098</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>25.521939627215101</v>
+        <v>51.789476532476399</v>
       </c>
       <c r="B64">
-        <v>40.205846188506001</v>
+        <v>11.318462719252199</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>84.173960133601398</v>
+        <v>25.521939627215101</v>
       </c>
       <c r="B65">
-        <v>19.466114516888101</v>
+        <v>40.205846188506001</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>27.0131459251104</v>
+        <v>84.173960133601398</v>
       </c>
       <c r="B66">
-        <v>18.914724849644401</v>
+        <v>19.466114516888101</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>70.606934324542095</v>
+        <v>27.0131459251104</v>
       </c>
       <c r="B67">
-        <v>55.820952169473003</v>
+        <v>18.914724849644401</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>43.186604805880698</v>
+        <v>70.606934324542095</v>
       </c>
       <c r="B68">
-        <v>11.6621243752216</v>
+        <v>55.820952169473003</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>29.646405344166201</v>
+        <v>43.186604805880698</v>
       </c>
       <c r="B69">
-        <v>50.118668053885997</v>
+        <v>11.6621243752216</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>74.016328170631297</v>
+        <v>29.646405344166201</v>
       </c>
       <c r="B70">
-        <v>14.659147281548</v>
+        <v>50.118668053885997</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>24.883008374574299</v>
+        <v>74.016328170631297</v>
       </c>
       <c r="B71">
-        <v>23.932343078556102</v>
+        <v>14.659147281548</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>85.005898314035406</v>
+        <v>24.883008374574299</v>
       </c>
       <c r="B72">
-        <v>42.368640641345202</v>
+        <v>23.932343078556102</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>36.445911569005901</v>
+        <v>85.005898314035406</v>
       </c>
       <c r="B73">
-        <v>12.9075886075652</v>
+        <v>42.368640641345202</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>37.551167874301903</v>
+        <v>36.445911569005901</v>
       </c>
       <c r="B74">
-        <v>58.834020468823098</v>
+        <v>12.9075886075652</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>63.115964131006997</v>
+        <v>37.551167874301903</v>
       </c>
       <c r="B75">
-        <v>12.4042592321097</v>
+        <v>58.834020468823098</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>24.246715906341699</v>
+        <v>63.115964131006997</v>
       </c>
       <c r="B76">
-        <v>30.466220405403899</v>
+        <v>12.4042592321097</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>89.739282913308102</v>
+        <v>24.246715906341699</v>
       </c>
       <c r="B77">
-        <v>29.3569580006207</v>
+        <v>30.466220405403899</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>31.249552180210198</v>
+        <v>89.739282913308102</v>
       </c>
       <c r="B78">
-        <v>15.075262056849301</v>
+        <v>29.3569580006207</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>50.701300553594201</v>
+        <v>31.249552180210198</v>
       </c>
       <c r="B79">
-        <v>62.521812333323098</v>
+        <v>15.075262056849301</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>52.947130679813903</v>
+        <v>50.701300553594201</v>
       </c>
       <c r="B80">
-        <v>11.380239731182201</v>
+        <v>62.521812333323098</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>25.318926297927799</v>
+        <v>52.947130679813903</v>
       </c>
       <c r="B81">
-        <v>39.007568133854797</v>
+        <v>11.380239731182201</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>85.118751174980602</v>
+        <v>25.318926297927799</v>
       </c>
       <c r="B82">
-        <v>20.3706955492388</v>
+        <v>39.007568133854797</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>27.356144803080198</v>
+        <v>85.118751174980602</v>
       </c>
       <c r="B83">
-        <v>18.385058523475401</v>
+        <v>20.3706955492388</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>68.554913417639895</v>
+        <v>27.356144803080198</v>
       </c>
       <c r="B84">
-        <v>57.153649745969297</v>
+        <v>18.385058523475401</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>44.147860488611897</v>
+        <v>68.554913417639895</v>
       </c>
       <c r="B85">
-        <v>11.5501933546273</v>
+        <v>57.153649745969297</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>28.809530963518501</v>
+        <v>44.147860488611897</v>
       </c>
       <c r="B86">
-        <v>48.962323352602297</v>
+        <v>11.5501933546273</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>75.335837358182999</v>
+        <v>28.809530963518501</v>
       </c>
       <c r="B87">
-        <v>14.9635934145996</v>
+        <v>48.962323352602297</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>24.988668119989999</v>
+        <v>75.335837358182999</v>
       </c>
       <c r="B88">
-        <v>23.273437898254201</v>
+        <v>14.9635934145996</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>84.041512907792495</v>
+        <v>24.988668119989999</v>
       </c>
       <c r="B89">
-        <v>43.949070368713599</v>
+        <v>23.273437898254201</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>36.934610475695401</v>
+        <v>84.041512907792495</v>
       </c>
       <c r="B90">
-        <v>12.6600894865333</v>
+        <v>43.949070368713599</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>36.523819623005302</v>
+        <v>36.934610475695401</v>
       </c>
       <c r="B91">
-        <v>58.397900667162702</v>
+        <v>12.6600894865333</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>63.9873208478976</v>
+        <v>36.523819623005302</v>
       </c>
       <c r="B92">
-        <v>12.319322285635099</v>
+        <v>58.397900667162702</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>24.122293953469502</v>
+        <v>63.9873208478976</v>
       </c>
       <c r="B93">
-        <v>29.982465732377399</v>
+        <v>12.319322285635099</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>89.913475612499198</v>
+        <v>24.122293953469502</v>
       </c>
       <c r="B94">
-        <v>30.155423171706001</v>
+        <v>29.982465732377399</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>31.4149717606937</v>
+        <v>89.913475612499198</v>
       </c>
       <c r="B95">
-        <v>14.818247331202601</v>
+        <v>30.155423171706001</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>49.822952849129202</v>
+        <v>31.4149717606937</v>
       </c>
       <c r="B96">
-        <v>62.7601993418345</v>
+        <v>14.818247331202601</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>53.3907758907147</v>
+        <v>49.822952849129202</v>
       </c>
       <c r="B97">
-        <v>11.336514403419599</v>
+        <v>62.7601993418345</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>25.087744369473299</v>
+        <v>53.3907758907147</v>
       </c>
       <c r="B98">
-        <v>38.604917364638503</v>
+        <v>11.336514403419599</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>85.585643040101004</v>
+        <v>25.087744369473299</v>
       </c>
       <c r="B99">
-        <v>20.533633171430601</v>
+        <v>38.604917364638503</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>27.240316812299401</v>
+        <v>85.585643040101004</v>
       </c>
       <c r="B100">
-        <v>18.104508953648502</v>
+        <v>20.533633171430601</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>68.314571834349195</v>
+        <v>27.240316812299401</v>
       </c>
       <c r="B101">
-        <v>57.838414412824399</v>
+        <v>18.104508953648502</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>44.059064397442597</v>
+        <v>68.314571834349195</v>
       </c>
       <c r="B102">
-        <v>11.390158407652301</v>
+        <v>57.838414412824399</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>28.679377027971999</v>
+        <v>44.059064397442597</v>
       </c>
       <c r="B103">
-        <v>49.173183596266199</v>
+        <v>11.390158407652301</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>75.359907696838405</v>
+        <v>28.679377027971999</v>
       </c>
       <c r="B104">
-        <v>14.776812074146299</v>
+        <v>49.173183596266199</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>24.7939327867741</v>
+        <v>75.359907696838405</v>
       </c>
       <c r="B105">
-        <v>23.310083560602699</v>
+        <v>14.776812074146299</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>84.638682414007405</v>
+        <v>24.7939327867741</v>
       </c>
       <c r="B106">
-        <v>43.715167818797802</v>
+        <v>23.310083560602699</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>36.656664356600302</v>
+        <v>84.638682414007405</v>
       </c>
       <c r="B107">
-        <v>12.716604981517101</v>
+        <v>43.715167818797802</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>36.962695825705502</v>
+        <v>36.656664356600302</v>
       </c>
       <c r="B108">
-        <v>58.729696279748701</v>
+        <v>12.716604981517101</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>63.541076212558501</v>
+        <v>36.962695825705502</v>
       </c>
       <c r="B109">
-        <v>12.2805462854536</v>
+        <v>58.729696279748701</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>24.0922859985555</v>
+        <v>63.541076212558501</v>
       </c>
       <c r="B110">
-        <v>30.2846238832647</v>
+        <v>12.2805462854536</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>89.969245459344904</v>
+        <v>24.0922859985555</v>
       </c>
       <c r="B111">
-        <v>29.650944557219798</v>
+        <v>30.2846238832647</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>31.2594849404725</v>
+        <v>89.969245459344904</v>
       </c>
       <c r="B112">
-        <v>14.958997376545099</v>
+        <v>29.650944557219798</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>50.402101860638503</v>
+        <v>31.2594849404725</v>
       </c>
       <c r="B113">
-        <v>62.720258995430903</v>
+        <v>14.958997376545099</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>53.120014746207502</v>
+        <v>50.402101860638503</v>
       </c>
       <c r="B114">
-        <v>11.385666307484501</v>
+        <v>62.720258995430903</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>25.155057743015199</v>
+        <v>53.120014746207502</v>
       </c>
       <c r="B115">
-        <v>38.812642898533902</v>
+        <v>11.385666307484501</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>85.409108221147804</v>
+        <v>25.155057743015199</v>
       </c>
       <c r="B116">
-        <v>20.320811364529</v>
+        <v>38.812642898533902</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>27.432729674786898</v>
+        <v>85.409108221147804</v>
       </c>
       <c r="B117">
-        <v>18.345972324106899</v>
+        <v>20.320811364529</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>68.204705846934104</v>
+        <v>27.432729674786898</v>
       </c>
       <c r="B118">
-        <v>57.2606569133577</v>
+        <v>18.345972324106899</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>44.218378262214898</v>
+        <v>68.204705846934104</v>
       </c>
       <c r="B119">
-        <v>11.512689514519501</v>
+        <v>57.2606569133577</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>28.819603636859501</v>
+        <v>44.218378262214898</v>
       </c>
       <c r="B120">
-        <v>48.9069983222236</v>
+        <v>11.512689514519501</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>75.433514111691395</v>
+        <v>28.819603636859501</v>
       </c>
       <c r="B121">
-        <v>14.993915419592</v>
+        <v>48.9069983222236</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>25.005126062679999</v>
+        <v>75.433514111691395</v>
       </c>
       <c r="B122">
-        <v>23.222530989229501</v>
+        <v>14.993915419592</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>83.940100260362996</v>
+        <v>25.005126062679999</v>
       </c>
       <c r="B123">
-        <v>44.066876620982697</v>
+        <v>23.222530989229501</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>36.910825020283198</v>
+        <v>83.940100260362996</v>
       </c>
       <c r="B124">
-        <v>12.6491149722749</v>
+        <v>44.066876620982697</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>36.426236819933798</v>
+        <v>36.910825020283198</v>
       </c>
       <c r="B125">
-        <v>58.466224144700199</v>
+        <v>12.6491149722749</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>64.023306033266906</v>
+        <v>36.426236819933798</v>
       </c>
       <c r="B126">
-        <v>12.3739081382513</v>
+        <v>58.466224144700199</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>24.020861620979801</v>
+        <v>64.023306033266906</v>
       </c>
       <c r="B127">
-        <v>29.858992371579699</v>
+        <v>12.3739081382513</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>90.2058826852236</v>
+        <v>24.020861620979801</v>
       </c>
       <c r="B128">
-        <v>30.084655555845</v>
+        <v>29.858992371579699</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>31.382775278556199</v>
+        <v>90.2058826852236</v>
       </c>
       <c r="B129">
-        <v>14.816987134717399</v>
+        <v>30.084655555845</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>49.852192041696398</v>
+        <v>31.382775278556199</v>
       </c>
       <c r="B130">
-        <v>62.875161366894702</v>
+        <v>14.816987134717399</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>53.263747260858999</v>
+        <v>49.852192041696398</v>
       </c>
       <c r="B131">
-        <v>11.2745200599316</v>
+        <v>62.875161366894702</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>25.046452638120101</v>
+        <v>53.263747260858999</v>
       </c>
       <c r="B132">
-        <v>38.763834818562501</v>
+        <v>11.2745200599316</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>85.602515415171794</v>
+        <v>25.046452638120101</v>
       </c>
       <c r="B133">
-        <v>20.343339192468299</v>
+        <v>38.763834818562501</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>27.226798188396401</v>
+        <v>85.602515415171794</v>
       </c>
       <c r="B134">
-        <v>18.228909725729</v>
+        <v>20.343339192468299</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>68.643848306825205</v>
+        <v>27.226798188396401</v>
       </c>
       <c r="B135">
-        <v>57.515863304096101</v>
+        <v>18.228909725729</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>44.043843810585301</v>
+        <v>68.643848306825205</v>
       </c>
       <c r="B136">
-        <v>11.4609112846426</v>
+        <v>57.515863304096101</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>28.9465290302998</v>
+        <v>44.043843810585301</v>
       </c>
       <c r="B137">
-        <v>49.221503099446203</v>
+        <v>11.4609112846426</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>75.084275770328304</v>
+        <v>28.9465290302998</v>
       </c>
       <c r="B138">
-        <v>14.8776882499281</v>
+        <v>49.221503099446203</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>24.8029290944129</v>
+        <v>75.084275770328304</v>
       </c>
       <c r="B139">
-        <v>23.336440948094001</v>
+        <v>14.8776882499281</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>84.738507024578496</v>
+        <v>24.8029290944129</v>
       </c>
       <c r="B140">
-        <v>43.521978905089597</v>
+        <v>23.336440948094001</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>36.496483107461998</v>
+        <v>84.738507024578496</v>
       </c>
       <c r="B141">
-        <v>12.5669479363743</v>
+        <v>43.521978905089597</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>36.712608259305597</v>
+        <v>36.496483107461998</v>
       </c>
       <c r="B142">
-        <v>59.232556497066</v>
+        <v>12.5669479363743</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>63.402732322661301</v>
+        <v>36.712608259305597</v>
       </c>
       <c r="B143">
-        <v>12.1101557833223</v>
+        <v>59.232556497066</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>23.8360767750383</v>
+        <v>63.402732322661301</v>
       </c>
       <c r="B144">
-        <v>30.441005880130302</v>
+        <v>12.1101557833223</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>90.568744681602197</v>
+        <v>23.8360767750383</v>
       </c>
       <c r="B145">
-        <v>29.015768623729901</v>
+        <v>30.441005880130302</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>30.814074076759901</v>
+        <v>90.568744681602197</v>
       </c>
       <c r="B146">
-        <v>14.973028037716499</v>
+        <v>29.015768623729901</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>51.514475778959003</v>
+        <v>30.814074076759901</v>
       </c>
       <c r="B147">
-        <v>63.139853350169503</v>
+        <v>14.973028037716499</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>52.224299877070401</v>
+        <v>51.514475778959003</v>
       </c>
       <c r="B148">
-        <v>11.135319427018</v>
+        <v>63.139853350169503</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>24.886216409367901</v>
+        <v>52.224299877070401</v>
       </c>
       <c r="B149">
-        <v>39.8436784448878</v>
+        <v>11.135319427018</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>85.129303633596606</v>
+        <v>24.886216409367901</v>
       </c>
       <c r="B150">
-        <v>19.159871876271399</v>
+        <v>39.8436784448878</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>26.6042240520765</v>
+        <v>85.129303633596606</v>
       </c>
       <c r="B151">
-        <v>18.673655910777502</v>
+        <v>19.159871876271399</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>71.637139901899502</v>
+        <v>26.6042240520765</v>
       </c>
       <c r="B152">
-        <v>56.2347031792374</v>
+        <v>18.673655910777502</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>42.4816167292269</v>
+        <v>71.637139901899502</v>
       </c>
       <c r="B153">
-        <v>11.392130410384601</v>
+        <v>56.2347031792374</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>29.500961206915001</v>
+        <v>42.4816167292269</v>
       </c>
       <c r="B154">
-        <v>51.302393509088503</v>
+        <v>11.392130410384601</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>73.257428541231207</v>
+        <v>29.500961206915001</v>
       </c>
       <c r="B155">
-        <v>13.9645900584995</v>
+        <v>51.302393509088503</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>24.118186658656601</v>
+        <v>73.257428541231207</v>
       </c>
       <c r="B156">
-        <v>24.429051780881899</v>
+        <v>13.9645900584995</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>88.061034384919793</v>
+        <v>24.118186658656601</v>
       </c>
       <c r="B157">
-        <v>40.148856059014697</v>
+        <v>24.429051780881899</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>34.899536324197904</v>
+        <v>88.061034384919793</v>
       </c>
       <c r="B158">
-        <v>12.9005988067912</v>
+        <v>40.148856059014697</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>39.497667778436004</v>
+        <v>34.899536324197904</v>
       </c>
       <c r="B159">
-        <v>61.294053624954401</v>
+        <v>12.9005988067912</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>60.424482868123</v>
+        <v>39.497667778436004</v>
       </c>
       <c r="B160">
-        <v>11.520020572983199</v>
+        <v>61.294053624954401</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>23.773346603023001</v>
+        <v>60.424482868123</v>
       </c>
       <c r="B161">
-        <v>32.698468187722199</v>
+        <v>11.520020572983199</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>90.284786809785402</v>
+        <v>23.773346603023001</v>
       </c>
       <c r="B162">
-        <v>25.794899661790598</v>
+        <v>32.698468187722199</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>29.3347020310689</v>
+        <v>90.284786809785402</v>
       </c>
       <c r="B163">
-        <v>15.718806775018701</v>
+        <v>25.794899661790598</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>56.932625526373698</v>
+        <v>29.3347020310689</v>
       </c>
       <c r="B164">
-        <v>62.8322383375898</v>
+        <v>15.718806775018701</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>49.046817562837703</v>
+        <v>56.932625526373698</v>
       </c>
       <c r="B165">
-        <v>10.9537915567526</v>
+        <v>62.8322383375898</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>25.801691711235598</v>
+        <v>49.046817562837703</v>
       </c>
       <c r="B166">
-        <v>43.292385422881999</v>
+        <v>10.9537915567526</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>81.888210650322094</v>
+        <v>25.801691711235598</v>
       </c>
       <c r="B167">
-        <v>17.08059556013</v>
+        <v>43.292385422881999</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>25.585310253745199</v>
+        <v>81.888210650322094</v>
       </c>
       <c r="B168">
-        <v>20.2834311550607</v>
+        <v>17.08059556013</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>78.071973894155605</v>
+        <v>25.585310253745199</v>
       </c>
       <c r="B169">
-        <v>51.555322327628403</v>
+        <v>20.2834311550607</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>39.780580797088298</v>
+        <v>78.071973894155605</v>
       </c>
       <c r="B170">
-        <v>11.7535751802166</v>
+        <v>51.555322327628403</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>31.962852385589599</v>
+        <v>39.780580797088298</v>
       </c>
       <c r="B171">
-        <v>55.009087704733197</v>
+        <v>11.7535751802166</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>68.967194556681406</v>
+        <v>31.962852385589599</v>
       </c>
       <c r="B172">
-        <v>12.828705831601701</v>
+        <v>55.009087704733197</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>23.775306092117798</v>
+        <v>68.967194556681406</v>
       </c>
       <c r="B173">
-        <v>26.897384191460201</v>
+        <v>12.828705831601701</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>90.330869209012405</v>
+        <v>23.775306092117798</v>
       </c>
       <c r="B174">
-        <v>34.861862942568102</v>
+        <v>26.897384191460201</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>32.776874587584402</v>
+        <v>90.330869209012405</v>
       </c>
       <c r="B175">
-        <v>13.645598919726501</v>
+        <v>34.861862942568102</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>44.458094355624901</v>
+        <v>32.776874587584402</v>
       </c>
       <c r="B176">
-        <v>63.240983650751701</v>
+        <v>13.645598919726501</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>56.351454563899999</v>
+        <v>44.458094355624901</v>
       </c>
       <c r="B177">
-        <v>11.141187422618099</v>
+        <v>63.240983650751701</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>24.211684811781399</v>
+        <v>56.351454563899999</v>
       </c>
       <c r="B178">
-        <v>36.055373341101699</v>
+        <v>11.141187422618099</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>88.211001592664999</v>
+        <v>24.211684811781399</v>
       </c>
       <c r="B179">
-        <v>22.2898356490421</v>
+        <v>36.055373341101699</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>27.8992525402208</v>
+        <v>88.211001592664999</v>
       </c>
       <c r="B180">
-        <v>17.0457025401683</v>
+        <v>22.2898356490421</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>64.048715954508594</v>
+        <v>27.8992525402208</v>
       </c>
       <c r="B181">
-        <v>60.387891243502402</v>
+        <v>17.0457025401683</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>45.911151729658897</v>
+        <v>64.048715954508594</v>
       </c>
       <c r="B182">
-        <v>11.1709024350577</v>
+        <v>60.387891243502402</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>27.348941068338299</v>
+        <v>45.911151729658897</v>
       </c>
       <c r="B183">
-        <v>46.932914082280199</v>
+        <v>11.1709024350577</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>77.938983039253699</v>
+        <v>27.348941068338299</v>
       </c>
       <c r="B184">
-        <v>15.5408963624111</v>
+        <v>46.932914082280199</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>24.773162095196199</v>
+        <v>77.938983039253699</v>
       </c>
       <c r="B185">
-        <v>21.991640833664398</v>
+        <v>15.5408963624111</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>82.928411453195196</v>
+        <v>24.773162095196199</v>
       </c>
       <c r="B186">
-        <v>46.853656112019003</v>
+        <v>21.991640833664398</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>38.0621938677766</v>
+        <v>82.928411453195196</v>
       </c>
       <c r="B187">
-        <v>13.129992438623701</v>
+        <v>46.853656112019003</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>36.275378977189</v>
+        <v>38.0621938677766</v>
       </c>
       <c r="B188">
-        <v>56.061146617183802</v>
+        <v>13.129992438623701</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>65.564039202215895</v>
+        <v>36.275378977189</v>
       </c>
       <c r="B189">
-        <v>13.3833127348242</v>
+        <v>56.061146617183802</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>25.093667947366999</v>
+        <v>65.564039202215895</v>
       </c>
       <c r="B190">
-        <v>28.6558681091662</v>
+        <v>13.3833127348242</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>87.221980652191505</v>
+        <v>25.093667947366999</v>
       </c>
       <c r="B191">
-        <v>33.5885854584211</v>
+        <v>28.6558681091662</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>33.651744061666598</v>
+        <v>87.221980652191505</v>
       </c>
       <c r="B192">
-        <v>14.6481761061337</v>
+        <v>33.5885854584211</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>45.123654925540997</v>
+        <v>33.651744061666598</v>
       </c>
       <c r="B193">
-        <v>60.399135056277999</v>
+        <v>14.6481761061337</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>57.427289965757303</v>
+        <v>45.123654925540997</v>
       </c>
       <c r="B194">
-        <v>12.2518909635124</v>
+        <v>60.399135056277999</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>25.2171930552215</v>
+        <v>57.427289965757303</v>
       </c>
       <c r="B195">
-        <v>34.681669333005097</v>
+        <v>12.2518909635124</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>86.994868488397699</v>
+        <v>25.2171930552215</v>
       </c>
       <c r="B196">
-        <v>25.048740425193099</v>
+        <v>34.681669333005097</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>30.0902433535841</v>
+        <v>86.994868488397699</v>
       </c>
       <c r="B197">
-        <v>16.829459343687802</v>
+        <v>25.048740425193099</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>57.324345930930598</v>
+        <v>30.0902433535841</v>
       </c>
       <c r="B198">
-        <v>59.882438385182702</v>
+        <v>16.829459343687802</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>49.795101227952202</v>
+        <v>57.324345930930598</v>
       </c>
       <c r="B199">
-        <v>11.908574461597301</v>
+        <v>59.882438385182702</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>27.006421051839201</v>
+        <v>49.795101227952202</v>
       </c>
       <c r="B200">
-        <v>41.995382974385997</v>
+        <v>11.908574461597301</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>81.387988056184099</v>
+        <v>27.006421051839201</v>
       </c>
       <c r="B201">
-        <v>18.928788899184401</v>
+        <v>41.995382974385997</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>27.2509762869797</v>
+        <v>81.387988056184099</v>
       </c>
       <c r="B202">
-        <v>19.922220260311601</v>
+        <v>18.928788899184401</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>71.582308715192895</v>
+        <v>27.2509762869797</v>
       </c>
       <c r="B203">
-        <v>53.512059667058999</v>
+        <v>19.922220260311601</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>42.992143463123703</v>
+        <v>71.582308715192895</v>
       </c>
       <c r="B204">
-        <v>12.1765009496901</v>
+        <v>53.512059667058999</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>30.677740794433198</v>
+        <v>42.992143463123703</v>
       </c>
       <c r="B205">
-        <v>49.913956983874598</v>
+        <v>12.1765009496901</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>73.334542681721302</v>
+        <v>30.677740794433198</v>
       </c>
       <c r="B206">
-        <v>15.2869267846607</v>
+        <v>49.913956983874598</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>25.5711325127536</v>
+        <v>73.334542681721302</v>
       </c>
       <c r="B207">
-        <v>24.083501924001101</v>
+        <v>15.2869267846607</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>82.944727424700204</v>
+        <v>25.5711325127536</v>
       </c>
       <c r="B208">
-        <v>42.812698789052099</v>
+        <v>24.083501924001101</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>37.524159500707803</v>
+        <v>82.944727424700204</v>
       </c>
       <c r="B209">
-        <v>13.2342550828086</v>
+        <v>42.812698789052099</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>37.079821464048699</v>
+        <v>37.524159500707803</v>
       </c>
       <c r="B210">
-        <v>56.835510927126698</v>
+        <v>13.2342550828086</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>64.550678513662902</v>
+        <v>37.079821464048699</v>
       </c>
       <c r="B211">
-        <v>13.1033002152138</v>
+        <v>56.835510927126698</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>24.926295406715901</v>
+        <v>64.550678513662902</v>
       </c>
       <c r="B212">
-        <v>29.419615282573801</v>
+        <v>13.1033002152138</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>87.849028434510899</v>
+        <v>24.926295406715901</v>
       </c>
       <c r="B213">
-        <v>32.1227172112226</v>
+        <v>29.419615282573801</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>32.952520959521799</v>
+        <v>87.849028434510899</v>
       </c>
       <c r="B214">
-        <v>14.868450347171001</v>
+        <v>32.1227172112226</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>46.7933541628054</v>
+        <v>32.952520959521799</v>
       </c>
       <c r="B215">
-        <v>60.868556918220399</v>
+        <v>14.868450347171001</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>56.168681961162001</v>
+        <v>46.7933541628054</v>
       </c>
       <c r="B216">
-        <v>12.135442349671401</v>
+        <v>60.868556918220399</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>25.457826780352001</v>
+        <v>56.168681961162001</v>
       </c>
       <c r="B217">
-        <v>35.771258814104499</v>
+        <v>12.135442349671401</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>86.273491540632307</v>
+        <v>25.457826780352001</v>
       </c>
       <c r="B218">
-        <v>23.855522603738201</v>
+        <v>35.771258814104499</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>29.5996823745466</v>
+        <v>86.273491540632307</v>
       </c>
       <c r="B219">
-        <v>17.3071406622587</v>
+        <v>23.855522603738201</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>59.601909139700801</v>
+        <v>29.5996823745466</v>
       </c>
       <c r="B220">
-        <v>59.161604521291601</v>
+        <v>17.3071406622587</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>48.627926689273501</v>
+        <v>59.601909139700801</v>
       </c>
       <c r="B221">
-        <v>11.9442896235748</v>
+        <v>59.161604521291601</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>27.476724559254102</v>
+        <v>48.627926689273501</v>
       </c>
       <c r="B222">
-        <v>43.2397606911304</v>
+        <v>11.9442896235748</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>80.191824780401305</v>
+        <v>27.476724559254102</v>
       </c>
       <c r="B223">
-        <v>18.239831437017301</v>
+        <v>43.2397606911304</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>27.1271210228469</v>
+        <v>80.191824780401305</v>
       </c>
       <c r="B224">
-        <v>20.592126953682701</v>
+        <v>18.239831437017301</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>73.1538509522872</v>
+        <v>27.1271210228469</v>
       </c>
       <c r="B225">
-        <v>51.907542543809797</v>
+        <v>20.592126953682701</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>42.216526549678399</v>
+        <v>73.1538509522872</v>
       </c>
       <c r="B226">
-        <v>12.4184097980866</v>
+        <v>51.907542543809797</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>31.467391343947199</v>
+        <v>42.216526549678399</v>
       </c>
       <c r="B227">
-        <v>50.890329670421202</v>
+        <v>12.4184097980866</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>72.017117555347895</v>
+        <v>31.467391343947199</v>
       </c>
       <c r="B228">
-        <v>14.8641060044911</v>
+        <v>50.890329670421202</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>25.6278168665838</v>
+        <v>72.017117555347895</v>
       </c>
       <c r="B229">
-        <v>24.830426384120202</v>
+        <v>14.8641060044911</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>83.3357050389384</v>
+        <v>25.6278168665838</v>
       </c>
       <c r="B230">
-        <v>41.470448608069503</v>
+        <v>24.830426384120202</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>36.989980812830296</v>
+        <v>83.3357050389384</v>
       </c>
       <c r="B231">
-        <v>13.4625618781943</v>
+        <v>41.470448608069503</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>38.082498897701598</v>
+        <v>36.989980812830296</v>
       </c>
       <c r="B232">
-        <v>57.407089951878497</v>
+        <v>13.4625618781943</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>63.466785557896998</v>
+        <v>38.082498897701598</v>
       </c>
       <c r="B233">
-        <v>12.9780868406429</v>
+        <v>57.407089951878497</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>25.137142131240498</v>
+        <v>63.466785557896998</v>
       </c>
       <c r="B234">
-        <v>30.1074067950771</v>
+        <v>12.9780868406429</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>87.4352977174334</v>
+        <v>25.137142131240498</v>
       </c>
       <c r="B235">
-        <v>31.329520427105699</v>
+        <v>30.1074067950771</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>32.765411015185997</v>
+        <v>87.4352977174334</v>
       </c>
       <c r="B236">
-        <v>15.163070443459899</v>
+        <v>31.329520427105699</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>47.898805192809697</v>
+        <v>32.765411015185997</v>
       </c>
       <c r="B237">
-        <v>60.627997472158903</v>
+        <v>15.163070443459899</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>55.400320452002298</v>
+        <v>47.898805192809697</v>
       </c>
       <c r="B238">
-        <v>12.1147944391507</v>
+        <v>60.627997472158903</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>25.607513156607499</v>
+        <v>55.400320452002298</v>
       </c>
       <c r="B239">
-        <v>36.470723464575499</v>
+        <v>12.1147944391507</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>85.846430838682494</v>
+        <v>25.607513156607499</v>
       </c>
       <c r="B240">
-        <v>23.169887806764301</v>
+        <v>36.470723464575499</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>29.1660521109294</v>
+        <v>85.846430838682494</v>
       </c>
       <c r="B241">
-        <v>17.536473947881699</v>
+        <v>23.169887806764301</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>61.186774807594603</v>
+        <v>29.1660521109294</v>
       </c>
       <c r="B242">
-        <v>58.904892046889202</v>
+        <v>17.536473947881699</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>47.858232855898201</v>
+        <v>61.186774807594603</v>
       </c>
       <c r="B243">
-        <v>11.8728765833079</v>
+        <v>58.904892046889202</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>27.8306970396184</v>
+        <v>47.858232855898201</v>
       </c>
       <c r="B244">
-        <v>44.030627189637997</v>
+        <v>11.8728765833079</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>79.415017977330194</v>
+        <v>27.8306970396184</v>
       </c>
       <c r="B245">
-        <v>17.926356143762401</v>
+        <v>44.030627189637997</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>26.785051469413599</v>
+        <v>79.415017977330194</v>
       </c>
       <c r="B246">
-        <v>20.9249418835483</v>
+        <v>17.926356143762401</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>74.768220994681997</v>
+        <v>26.785051469413599</v>
       </c>
       <c r="B247">
-        <v>50.973767482022197</v>
+        <v>20.9249418835483</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>41.685093629698997</v>
+        <v>74.768220994681997</v>
       </c>
       <c r="B248">
-        <v>12.458021507587601</v>
+        <v>50.973767482022197</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>32.064379853702597</v>
+        <v>41.685093629698997</v>
       </c>
       <c r="B249">
-        <v>51.611196555394301</v>
+        <v>12.458021507587601</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>71.189652914467302</v>
+        <v>32.064379853702597</v>
       </c>
       <c r="B250">
-        <v>14.673059865687501</v>
+        <v>51.611196555394301</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>25.410616212238601</v>
+        <v>71.189652914467302</v>
       </c>
       <c r="B251">
-        <v>25.285210376005899</v>
+        <v>14.673059865687501</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>84.555238499179794</v>
+        <v>25.410616212238601</v>
       </c>
       <c r="B252">
-        <v>40.119110479862996</v>
+        <v>25.285210376005899</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>36.439095842367102</v>
+        <v>84.555238499179794</v>
       </c>
       <c r="B253">
-        <v>13.613539529196199</v>
+        <v>40.119110479862996</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>39.069417394712602</v>
+        <v>36.439095842367102</v>
       </c>
       <c r="B254">
-        <v>57.949036781870902</v>
+        <v>13.613539529196199</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>62.600444023833099</v>
+        <v>39.069417394712602</v>
       </c>
       <c r="B255">
-        <v>12.8610080029203</v>
+        <v>57.949036781870902</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>25.029521562624598</v>
+        <v>62.600444023833099</v>
       </c>
       <c r="B256">
-        <v>30.737199119415202</v>
+        <v>12.8610080029203</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>87.877920435404107</v>
+        <v>25.029521562624598</v>
       </c>
       <c r="B257">
-        <v>30.014886809095099</v>
+        <v>30.737199119415202</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>32.244169779434003</v>
+        <v>87.877920435404107</v>
       </c>
       <c r="B258">
-        <v>15.419912362004901</v>
+        <v>30.014886809095099</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>49.4523580767464</v>
+        <v>32.244169779434003</v>
       </c>
       <c r="B259">
-        <v>60.663600060335199</v>
+        <v>15.419912362004901</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>54.458805181774103</v>
+        <v>49.4523580767464</v>
       </c>
       <c r="B260">
-        <v>12.089093369295799</v>
+        <v>60.663600060335199</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>25.838904857380601</v>
+        <v>54.458805181774103</v>
       </c>
       <c r="B261">
-        <v>37.333471885360602</v>
+        <v>12.089093369295799</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>85.111400971963107</v>
+        <v>25.838904857380601</v>
       </c>
       <c r="B262">
-        <v>22.488675272396399</v>
+        <v>37.333471885360602</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>29.0650313854944</v>
+        <v>85.111400971963107</v>
       </c>
       <c r="B263">
-        <v>17.966805087074501</v>
+        <v>22.488675272396399</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>62.422330189487802</v>
+        <v>29.0650313854944</v>
       </c>
       <c r="B264">
-        <v>57.937859145843099</v>
+        <v>17.966805087074501</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>47.269397167009203</v>
+        <v>62.422330189487802</v>
       </c>
       <c r="B265">
-        <v>12.051279468993901</v>
+        <v>57.937859145843099</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>28.154866662654499</v>
+        <v>47.269397167009203</v>
       </c>
       <c r="B266">
-        <v>44.707440754153502</v>
+        <v>12.051279468993901</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>78.643994746683902</v>
+        <v>28.154866662654499</v>
       </c>
       <c r="B267">
-        <v>17.493590736367899</v>
+        <v>44.707440754153502</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>26.829325226319</v>
+        <v>78.643994746683902</v>
       </c>
       <c r="B268">
-        <v>21.344382883124901</v>
+        <v>17.493590736367899</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>75.284328271810097</v>
+        <v>26.829325226319</v>
       </c>
       <c r="B269">
-        <v>50.054948720651304</v>
+        <v>21.344382883124901</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>41.2259166068676</v>
+        <v>75.284328271810097</v>
       </c>
       <c r="B270">
-        <v>12.602263914030299</v>
+        <v>50.054948720651304</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>32.470837957397997</v>
+        <v>41.2259166068676</v>
       </c>
       <c r="B271">
-        <v>52.122899916433703</v>
+        <v>12.602263914030299</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>70.494879333920593</v>
+        <v>32.470837957397997</v>
       </c>
       <c r="B272">
-        <v>14.479492253885899</v>
+        <v>52.122899916433703</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273">
-        <v>25.314541456284601</v>
+        <v>70.494879333920593</v>
       </c>
       <c r="B273">
-        <v>25.654324335958101</v>
+        <v>14.479492253885899</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>85.129193822567402</v>
+        <v>25.314541456284601</v>
       </c>
       <c r="B274">
-        <v>39.3118774284249</v>
+        <v>25.654324335958101</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>35.920635302858997</v>
+        <v>85.129193822567402</v>
       </c>
       <c r="B275">
-        <v>13.647694299448499</v>
+        <v>39.3118774284249</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>39.761785644598902</v>
+        <v>35.920635302858997</v>
       </c>
       <c r="B276">
-        <v>58.604788781514401</v>
+        <v>13.647694299448499</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>61.790275094495399</v>
+        <v>39.761785644598902</v>
       </c>
       <c r="B277">
-        <v>12.6476095857756</v>
+        <v>58.604788781514401</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278">
-        <v>24.945069566432</v>
+        <v>61.790275094495399</v>
       </c>
       <c r="B278">
-        <v>31.324107877314901</v>
+        <v>12.6476095857756</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>88.006011228485903</v>
+        <v>24.945069566432</v>
       </c>
       <c r="B279">
-        <v>29.170254305572101</v>
+        <v>31.324107877314901</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280">
-        <v>31.693437923875699</v>
+        <v>88.006011228485903</v>
       </c>
       <c r="B280">
-        <v>15.539068567667</v>
+        <v>29.170254305572101</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>50.776194649969497</v>
+        <v>31.693437923875699</v>
       </c>
       <c r="B281">
-        <v>61.145107331800801</v>
+        <v>15.539068567667</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>53.5253904603357</v>
+        <v>50.776194649969497</v>
       </c>
       <c r="B282">
-        <v>11.8850180186285</v>
+        <v>61.145107331800801</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>25.716061116294799</v>
+        <v>53.5253904603357</v>
       </c>
       <c r="B283">
-        <v>38.227887034320801</v>
+        <v>11.8850180186285</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>84.9573008513822</v>
+        <v>25.716061116294799</v>
       </c>
       <c r="B284">
-        <v>21.456189553321899</v>
+        <v>38.227887034320801</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285">
-        <v>28.2610525987801</v>
+        <v>84.9573008513822</v>
       </c>
       <c r="B285">
-        <v>18.1698197017765</v>
+        <v>21.456189553321899</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>65.125516270839498</v>
+        <v>28.2610525987801</v>
       </c>
       <c r="B286">
-        <v>57.701664780624903</v>
+        <v>18.1698197017765</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>46.010327458138804</v>
+        <v>65.125516270839498</v>
       </c>
       <c r="B287">
-        <v>11.870622213130201</v>
+        <v>57.701664780624903</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>28.479495576041401</v>
+        <v>46.010327458138804</v>
       </c>
       <c r="B288">
-        <v>46.354414960827903</v>
+        <v>11.870622213130201</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>77.330162298331501</v>
+        <v>28.479495576041401</v>
       </c>
       <c r="B289">
-        <v>16.478167844962101</v>
+        <v>46.354414960827903</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>26.017663872422499</v>
+        <v>77.330162298331501</v>
       </c>
       <c r="B290">
-        <v>22.061040616776001</v>
+        <v>16.478167844962101</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>79.032293202869297</v>
+        <v>26.017663872422499</v>
       </c>
       <c r="B291">
-        <v>47.765906674210399</v>
+        <v>22.061040616776001</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>39.373047768459301</v>
+        <v>79.032293202869297</v>
       </c>
       <c r="B292">
-        <v>12.458657407360599</v>
+        <v>47.765906674210399</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>33.754516852345297</v>
+        <v>39.373047768459301</v>
       </c>
       <c r="B293">
-        <v>54.848096056893397</v>
+        <v>12.458657407360599</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>68.034725100138203</v>
+        <v>33.754516852345297</v>
       </c>
       <c r="B294">
-        <v>13.5981667808997</v>
+        <v>54.848096056893397</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>24.771704925219101</v>
+        <v>68.034725100138203</v>
       </c>
       <c r="B295">
-        <v>27.170196353166499</v>
+        <v>13.5981667808997</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>87.650213600932602</v>
+        <v>24.771704925219101</v>
       </c>
       <c r="B296">
-        <v>35.687746000077603</v>
+        <v>27.170196353166499</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>34.139923696601201</v>
+        <v>87.650213600932602</v>
       </c>
       <c r="B297">
-        <v>14.0430084417769</v>
+        <v>35.687746000077603</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>42.960756909978997</v>
+        <v>34.139923696601201</v>
       </c>
       <c r="B298">
-        <v>60.746828231453797</v>
+        <v>14.0430084417769</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>58.566224792475403</v>
+        <v>42.960756909978997</v>
       </c>
       <c r="B299">
-        <v>12.006964255958399</v>
+        <v>60.746828231453797</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>24.7407813501767</v>
+        <v>58.566224792475403</v>
       </c>
       <c r="B300">
-        <v>33.930827838705497</v>
+        <v>12.006964255958399</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>88.156606400664401</v>
+        <v>24.7407813501767</v>
       </c>
       <c r="B301">
-        <v>25.163995331802699</v>
+        <v>33.930827838705497</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>29.658410348757201</v>
+        <v>88.156606400664401</v>
       </c>
       <c r="B302">
-        <v>16.396620772374</v>
+        <v>25.163995331802699</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>57.454931658720902</v>
+        <v>29.658410348757201</v>
       </c>
       <c r="B303">
-        <v>61.143789325793101</v>
+        <v>16.396620772374</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>49.418364192507902</v>
+        <v>57.454931658720902</v>
       </c>
       <c r="B304">
-        <v>11.507460650020199</v>
+        <v>61.143789325793101</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>26.730476412138099</v>
+        <v>49.418364192507902</v>
       </c>
       <c r="B305">
-        <v>42.492461864625099</v>
+        <v>11.507460650020199</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>81.476206901308998</v>
+        <v>26.730476412138099</v>
       </c>
       <c r="B306">
-        <v>18.420837922801901</v>
+        <v>42.492461864625099</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>26.721686109117801</v>
+        <v>81.476206901308998</v>
       </c>
       <c r="B307">
-        <v>20.053922103357898</v>
+        <v>18.420837922801901</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>73.743781748186905</v>
+        <v>26.721686109117801</v>
       </c>
       <c r="B308">
-        <v>52.913212859856301</v>
+        <v>20.053922103357898</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>41.757404063422896</v>
+        <v>73.743781748186905</v>
       </c>
       <c r="B309">
-        <v>12.009613772343201</v>
+        <v>52.913212859856301</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>31.008130042802101</v>
+        <v>41.757404063422896</v>
       </c>
       <c r="B310">
-        <v>51.817152425007201</v>
+        <v>12.009613772343201</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311">
-        <v>71.8361588053329</v>
+        <v>31.008130042802101</v>
       </c>
       <c r="B311">
-        <v>14.288530101850499</v>
+        <v>51.817152425007201</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312">
-        <v>24.763517656082598</v>
+        <v>71.8361588053329</v>
       </c>
       <c r="B312">
-        <v>24.990398001767701</v>
+        <v>14.288530101850499</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>86.425715501750602</v>
+        <v>24.763517656082598</v>
       </c>
       <c r="B313">
-        <v>39.906246546478698</v>
+        <v>24.990398001767701</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314">
-        <v>35.376836575262203</v>
+        <v>86.425715501750602</v>
       </c>
       <c r="B314">
-        <v>13.2280810245033</v>
+        <v>39.906246546478698</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315">
-        <v>39.518524941481999</v>
+        <v>35.376836575262203</v>
       </c>
       <c r="B315">
-        <v>60.056792924865199</v>
+        <v>13.2280810245033</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316">
-        <v>61.180696788553</v>
+        <v>39.518524941481999</v>
       </c>
       <c r="B316">
-        <v>12.1345816685222</v>
+        <v>60.056792924865199</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317">
-        <v>24.284612583386998</v>
+        <v>61.180696788553</v>
       </c>
       <c r="B317">
-        <v>31.866727583800699</v>
+        <v>12.1345816685222</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>89.494007004133096</v>
+        <v>24.284612583386998</v>
       </c>
       <c r="B318">
-        <v>27.404402537666599</v>
+        <v>31.866727583800699</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319">
-        <v>30.439608648288999</v>
+        <v>89.494007004133096</v>
       </c>
       <c r="B319">
-        <v>15.5824162179143</v>
+        <v>27.404402537666599</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>53.733765921975603</v>
+        <v>30.439608648288999</v>
       </c>
       <c r="B320">
-        <v>62.266729035181903</v>
+        <v>15.5824162179143</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>51.2046122502353</v>
+        <v>53.733765921975603</v>
       </c>
       <c r="B321">
-        <v>11.330844502873401</v>
+        <v>62.266729035181903</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>25.747415501992801</v>
+        <v>51.2046122502353</v>
       </c>
       <c r="B322">
-        <v>40.754745916159003</v>
+        <v>11.330844502873401</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>83.594470939877098</v>
+        <v>25.747415501992801</v>
       </c>
       <c r="B323">
-        <v>19.140138727898801</v>
+        <v>40.754745916159003</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>26.787619109714601</v>
+        <v>83.594470939877098</v>
       </c>
       <c r="B324">
-        <v>19.1531391376462</v>
+        <v>19.140138727898801</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>71.931795879873604</v>
+        <v>26.787619109714601</v>
       </c>
       <c r="B325">
-        <v>55.1211168972469</v>
+        <v>19.1531391376462</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>42.674964817820999</v>
+        <v>71.931795879873604</v>
       </c>
       <c r="B326">
-        <v>11.6749132996271</v>
+        <v>55.1211168972469</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>29.844191228436799</v>
+        <v>42.674964817820999</v>
       </c>
       <c r="B327">
-        <v>50.893293263388998</v>
+        <v>11.6749132996271</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>73.234413892897805</v>
+        <v>29.844191228436799</v>
       </c>
       <c r="B328">
-        <v>14.2948172377191</v>
+        <v>50.893293263388998</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>24.6815449283039</v>
+        <v>73.234413892897805</v>
       </c>
       <c r="B329">
-        <v>24.380800754866701</v>
+        <v>14.2948172377191</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>86.079973197639703</v>
+        <v>24.6815449283039</v>
       </c>
       <c r="B330">
-        <v>41.171693995364102</v>
+        <v>24.380800754866701</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>35.664370151205901</v>
+        <v>86.079973197639703</v>
       </c>
       <c r="B331">
-        <v>12.9873448655599</v>
+        <v>41.171693995364102</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>38.493553217365204</v>
+        <v>35.664370151205901</v>
       </c>
       <c r="B332">
-        <v>60.093433382565699</v>
+        <v>12.9873448655599</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333">
-        <v>61.784071017478901</v>
+        <v>38.493553217365204</v>
       </c>
       <c r="B333">
-        <v>11.9838548600886</v>
+        <v>60.093433382565699</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>23.9584948822081</v>
+        <v>61.784071017478901</v>
       </c>
       <c r="B334">
-        <v>31.466819647606599</v>
+        <v>11.9838548600886</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>90.188185056305301</v>
+        <v>23.9584948822081</v>
       </c>
       <c r="B335">
-        <v>27.626428371987899</v>
+        <v>31.466819647606599</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>30.199864949879998</v>
+        <v>90.188185056305301</v>
       </c>
       <c r="B336">
-        <v>15.348792805317499</v>
+        <v>27.626428371987899</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>53.780195335684802</v>
+        <v>30.199864949879998</v>
       </c>
       <c r="B337">
-        <v>62.968419928368903</v>
+        <v>15.348792805317499</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>50.956802913428298</v>
+        <v>53.780195335684802</v>
       </c>
       <c r="B338">
-        <v>11.163620063879801</v>
+        <v>62.968419928368903</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>25.530066674223701</v>
+        <v>50.956802913428298</v>
       </c>
       <c r="B339">
-        <v>41.132482909755801</v>
+        <v>11.163620063879801</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340">
-        <v>83.604903848293006</v>
+        <v>25.530066674223701</v>
       </c>
       <c r="B340">
-        <v>18.647213377114898</v>
+        <v>41.132482909755801</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>26.493327599267801</v>
+        <v>83.604903848293006</v>
       </c>
       <c r="B341">
-        <v>19.282119766535001</v>
+        <v>18.647213377114898</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>73.094565287094397</v>
+        <v>26.493327599267801</v>
       </c>
       <c r="B342">
-        <v>54.693070857603203</v>
+        <v>19.282119766535001</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>42.036802432989496</v>
+        <v>73.094565287094397</v>
       </c>
       <c r="B343">
-        <v>11.6369687299019</v>
+        <v>54.693070857603203</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>30.290866879388801</v>
+        <v>42.036802432989496</v>
       </c>
       <c r="B344">
-        <v>51.759090255019899</v>
+        <v>11.6369687299019</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>72.378500464621396</v>
+        <v>30.290866879388801</v>
       </c>
       <c r="B345">
-        <v>13.9714698908813</v>
+        <v>51.759090255019899</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>24.3493488122073</v>
+        <v>72.378500464621396</v>
       </c>
       <c r="B346">
-        <v>24.815539573266399</v>
+        <v>13.9714698908813</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>87.496047096799799</v>
+        <v>24.3493488122073</v>
       </c>
       <c r="B347">
-        <v>39.738267255142098</v>
+        <v>24.815539573266399</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>34.979508874064202</v>
+        <v>87.496047096799799</v>
       </c>
       <c r="B348">
-        <v>13.086948409440801</v>
+        <v>39.738267255142098</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>39.758157809896502</v>
+        <v>34.979508874064202</v>
       </c>
       <c r="B349">
-        <v>60.839982597073202</v>
+        <v>13.086948409440801</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>60.572596713211396</v>
+        <v>39.758157809896502</v>
       </c>
       <c r="B350">
-        <v>11.825635758902999</v>
+        <v>60.839982597073202</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>23.9858726197665</v>
+        <v>60.572596713211396</v>
       </c>
       <c r="B351">
-        <v>32.400832722053501</v>
+        <v>11.825635758902999</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352">
-        <v>89.986455237166794</v>
+        <v>23.9858726197665</v>
       </c>
       <c r="B352">
-        <v>26.293246660382401</v>
+        <v>32.400832722053501</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353">
-        <v>29.772560437491499</v>
+        <v>89.986455237166794</v>
       </c>
       <c r="B353">
-        <v>15.730301473233499</v>
+        <v>26.293246660382401</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354">
-        <v>55.831916736809298</v>
+        <v>29.772560437491499</v>
       </c>
       <c r="B354">
-        <v>62.429896839398801</v>
+        <v>15.730301473233499</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355">
-        <v>49.898289865760702</v>
+        <v>55.831916736809298</v>
       </c>
       <c r="B355">
-        <v>11.206118138836599</v>
+        <v>62.429896839398801</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356">
-        <v>25.962957106387801</v>
+        <v>49.898289865760702</v>
       </c>
       <c r="B356">
-        <v>42.194709317194601</v>
+        <v>11.206118138836599</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357">
-        <v>82.473149096321606</v>
+        <v>25.962957106387801</v>
       </c>
       <c r="B357">
-        <v>18.082828593214199</v>
+        <v>42.194709317194601</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358">
-        <v>26.2603740002432</v>
+        <v>82.473149096321606</v>
       </c>
       <c r="B358">
-        <v>19.801403065343798</v>
+        <v>18.082828593214199</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359">
-        <v>74.834349857677097</v>
+        <v>26.2603740002432</v>
       </c>
       <c r="B359">
-        <v>53.273726911583502</v>
+        <v>19.801403065343798</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360">
-        <v>41.403485803449797</v>
+        <v>74.834349857677097</v>
       </c>
       <c r="B360">
-        <v>11.7908665237118</v>
+        <v>53.273726911583502</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361">
-        <v>31.006946990917001</v>
+        <v>41.403485803449797</v>
       </c>
       <c r="B361">
-        <v>52.629483151541102</v>
+        <v>11.7908665237118</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362">
-        <v>71.282368710833396</v>
+        <v>31.006946990917001</v>
       </c>
       <c r="B362">
-        <v>13.7642595622484</v>
+        <v>52.629483151541102</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363">
-        <v>24.4622468134964</v>
+        <v>71.282368710833396</v>
       </c>
       <c r="B363">
-        <v>25.4529693172625</v>
+        <v>13.7642595622484</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364">
-        <v>87.558457975813198</v>
+        <v>24.4622468134964</v>
       </c>
       <c r="B364">
-        <v>38.665202908515901</v>
+        <v>25.4529693172625</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365">
-        <v>34.684385732545302</v>
+        <v>87.558457975813198</v>
       </c>
       <c r="B365">
-        <v>13.3119121289539</v>
+        <v>38.665202908515901</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366">
-        <v>40.665448776446297</v>
+        <v>34.684385732545302</v>
       </c>
       <c r="B366">
-        <v>61.027114941275002</v>
+        <v>13.3119121289539</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367">
-        <v>59.922532187043601</v>
+        <v>40.665448776446297</v>
       </c>
       <c r="B367">
-        <v>11.841819398211999</v>
+        <v>61.027114941275002</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368">
-        <v>24.153683893189999</v>
+        <v>59.922532187043601</v>
       </c>
       <c r="B368">
-        <v>32.862221330072401</v>
+        <v>11.841819398211999</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369">
-        <v>89.521531958631897</v>
+        <v>24.153683893189999</v>
       </c>
       <c r="B369">
-        <v>25.935728107678798</v>
+        <v>32.862221330072401</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370">
-        <v>29.745735019666</v>
+        <v>89.521531958631897</v>
       </c>
       <c r="B370">
-        <v>15.9340891233504</v>
+        <v>25.935728107678798</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371">
-        <v>56.318327841483601</v>
+        <v>29.745735019666</v>
       </c>
       <c r="B371">
-        <v>62.038865633696297</v>
+        <v>15.9340891233504</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372">
-        <v>49.735173309554398</v>
+        <v>56.318327841483601</v>
       </c>
       <c r="B372">
-        <v>11.272445827240601</v>
+        <v>62.038865633696297</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373">
-        <v>26.144381758569999</v>
+        <v>49.735173309554398</v>
       </c>
       <c r="B373">
-        <v>42.329293636683701</v>
+        <v>11.272445827240601</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374">
-        <v>82.192812889199701</v>
+        <v>26.144381758569999</v>
       </c>
       <c r="B374">
-        <v>18.116188527576899</v>
+        <v>42.329293636683701</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375">
-        <v>26.3290724453603</v>
+        <v>82.192812889199701</v>
       </c>
       <c r="B375">
-        <v>19.847788335540301</v>
+        <v>18.116188527576899</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376">
-        <v>74.665005690704902</v>
+        <v>26.3290724453603</v>
       </c>
       <c r="B376">
-        <v>53.193506209322202</v>
+        <v>19.847788335540301</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377">
-        <v>41.338828971742501</v>
+        <v>74.665005690704902</v>
       </c>
       <c r="B377">
-        <v>11.816307051646699</v>
+        <v>53.193506209322202</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378">
-        <v>30.9641624389198</v>
+        <v>41.338828971742501</v>
       </c>
       <c r="B378">
-        <v>52.594118183329101</v>
+        <v>11.816307051646699</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379">
-        <v>71.300976013293095</v>
+        <v>30.9641624389198</v>
       </c>
       <c r="B379">
-        <v>13.7486560396603</v>
+        <v>52.594118183329101</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380">
-        <v>24.411483607667499</v>
+        <v>71.300976013293095</v>
       </c>
       <c r="B380">
-        <v>25.452292223613899</v>
+        <v>13.7486560396603</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381">
-        <v>87.695281847463406</v>
+        <v>24.411483607667499</v>
       </c>
       <c r="B381">
-        <v>38.598449875293497</v>
+        <v>25.452292223613899</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382">
-        <v>34.700404774897201</v>
+        <v>87.695281847463406</v>
       </c>
       <c r="B382">
-        <v>13.3135091001703</v>
+        <v>38.598449875293497</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383">
-        <v>40.504507916987997</v>
+        <v>34.700404774897201</v>
       </c>
       <c r="B383">
-        <v>61.089086220431902</v>
+        <v>13.3135091001703</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384">
-        <v>59.892802765798301</v>
+        <v>40.504507916987997</v>
       </c>
       <c r="B384">
-        <v>11.7090000765825</v>
+        <v>61.089086220431902</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385">
-        <v>24.0712045264988</v>
+        <v>59.892802765798301</v>
       </c>
       <c r="B385">
-        <v>33.021973655783803</v>
+        <v>11.7090000765825</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386">
-        <v>89.618132350671104</v>
+        <v>24.0712045264988</v>
       </c>
       <c r="B386">
-        <v>25.686062338562898</v>
+        <v>33.021973655783803</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387">
-        <v>29.493955520666901</v>
+        <v>89.618132350671104</v>
       </c>
       <c r="B387">
-        <v>15.881255652990999</v>
+        <v>25.686062338562898</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388">
-        <v>56.861034614976901</v>
+        <v>29.493955520666901</v>
       </c>
       <c r="B388">
-        <v>62.336618831186698</v>
+        <v>15.881255652990999</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389">
-        <v>49.2545953147985</v>
+        <v>56.861034614976901</v>
       </c>
       <c r="B389">
-        <v>11.0566913945904</v>
+        <v>62.336618831186698</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390">
-        <v>25.9074047376842</v>
+        <v>49.2545953147985</v>
       </c>
       <c r="B390">
-        <v>43.0478431758157</v>
+        <v>11.0566913945904</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391">
-        <v>81.933074669720497</v>
+        <v>25.9074047376842</v>
       </c>
       <c r="B391">
-        <v>17.355458054010601</v>
+        <v>43.0478431758157</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392">
-        <v>25.7853164246456</v>
+        <v>81.933074669720497</v>
       </c>
       <c r="B392">
-        <v>20.144675238263702</v>
+        <v>17.355458054010601</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393">
-        <v>77.2090876568639</v>
+        <v>25.7853164246456</v>
       </c>
       <c r="B393">
-        <v>52.038984504872303</v>
+        <v>20.144675238263702</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394">
-        <v>40.188355379589296</v>
+        <v>77.2090876568639</v>
       </c>
       <c r="B394">
-        <v>11.7003745683694</v>
+        <v>52.038984504872303</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395">
-        <v>31.683837188334401</v>
+        <v>40.188355379589296</v>
       </c>
       <c r="B395">
-        <v>54.462355155135597</v>
+        <v>11.7003745683694</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396">
-        <v>69.597366580774406</v>
+        <v>31.683837188334401</v>
       </c>
       <c r="B396">
-        <v>13.038378761254799</v>
+        <v>54.462355155135597</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397">
-        <v>23.9674633903638</v>
+        <v>69.597366580774406</v>
       </c>
       <c r="B397">
-        <v>26.523635237501001</v>
+        <v>13.038378761254799</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398">
-        <v>89.615842888570498</v>
+        <v>23.9674633903638</v>
       </c>
       <c r="B398">
-        <v>35.863645941594399</v>
+        <v>26.523635237501001</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399">
-        <v>33.254021136508499</v>
+        <v>89.615842888570498</v>
       </c>
       <c r="B399">
-        <v>13.5624910383398</v>
+        <v>35.863645941594399</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400">
-        <v>43.468175585741001</v>
+        <v>33.254021136508499</v>
       </c>
       <c r="B400">
-        <v>62.715158702039801</v>
+        <v>13.5624910383398</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401">
-        <v>57.316121727902797</v>
+        <v>43.468175585741001</v>
       </c>
       <c r="B401">
-        <v>11.3852472416495</v>
+        <v>62.715158702039801</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402">
-        <v>24.205653195779899</v>
+        <v>57.316121727902797</v>
       </c>
       <c r="B402">
-        <v>35.224217361909403</v>
+        <v>11.3852472416495</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403">
-        <v>88.5489311769946</v>
+        <v>24.205653195779899</v>
       </c>
       <c r="B403">
-        <v>23.248703197176798</v>
+        <v>35.224217361909403</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404">
-        <v>28.442355827197101</v>
+        <v>88.5489311769946</v>
       </c>
       <c r="B404">
-        <v>16.771141053028</v>
+        <v>23.248703197176798</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405">
-        <v>61.724266848844302</v>
+        <v>28.442355827197101</v>
       </c>
       <c r="B405">
-        <v>60.924053145612397</v>
+        <v>16.771141053028</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406">
-        <v>46.963896396705799</v>
+        <v>61.724266848844302</v>
       </c>
       <c r="B406">
-        <v>11.2108421574452</v>
+        <v>60.924053145612397</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407">
-        <v>27.011436639785799</v>
+        <v>46.963896396705799</v>
       </c>
       <c r="B407">
-        <v>45.548661361133703</v>
+        <v>11.2108421574452</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408">
-        <v>79.209559869836895</v>
+        <v>27.011436639785799</v>
       </c>
       <c r="B408">
-        <v>16.263681887680299</v>
+        <v>45.548661361133703</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409">
-        <v>25.287480192556899</v>
+        <v>79.209559869836895</v>
       </c>
       <c r="B409">
-        <v>21.339601930380802</v>
+        <v>16.263681887680299</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410">
-        <v>80.680923030739706</v>
+        <v>25.287480192556899</v>
       </c>
       <c r="B410">
-        <v>48.695548070624703</v>
+        <v>21.339601930380802</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411">
-        <v>38.808974059509602</v>
+        <v>80.680923030739706</v>
       </c>
       <c r="B411">
-        <v>12.110013444585</v>
+        <v>48.695548070624703</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412">
-        <v>33.543973730275603</v>
+        <v>38.808974059509602</v>
       </c>
       <c r="B412">
-        <v>56.1611698640451</v>
+        <v>12.110013444585</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413">
-        <v>67.1756783549408</v>
+        <v>33.543973730275603</v>
       </c>
       <c r="B413">
-        <v>12.698345585143</v>
+        <v>56.1611698640451</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414">
-        <v>23.9485236526004</v>
+        <v>67.1756783549408</v>
       </c>
       <c r="B414">
-        <v>27.935867849439902</v>
+        <v>12.698345585143</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415">
-        <v>90.136711146804799</v>
+        <v>23.9485236526004</v>
       </c>
       <c r="B415">
-        <v>33.246748940061401</v>
+        <v>27.935867849439902</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416">
-        <v>32.353218054564998</v>
+        <v>90.136711146804799</v>
       </c>
       <c r="B416">
-        <v>14.0426858862501</v>
+        <v>33.246748940061401</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417">
-        <v>46.148161259635799</v>
+        <v>32.353218054564998</v>
       </c>
       <c r="B417">
-        <v>63.176557813334803</v>
+        <v>14.0426858862501</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>55.482731954101901</v>
+        <v>46.148161259635799</v>
       </c>
       <c r="B418">
-        <v>11.3069965953047</v>
+        <v>63.176557813334803</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419">
-        <v>24.4594414847138</v>
+        <v>55.482731954101901</v>
       </c>
       <c r="B419">
-        <v>36.768332196277697</v>
+        <v>11.3069965953047</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420">
-        <v>87.448055996407803</v>
+        <v>24.4594414847138</v>
       </c>
       <c r="B420">
-        <v>21.7793555862932</v>
+        <v>36.768332196277697</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421">
-        <v>27.894421482780299</v>
+        <v>87.448055996407803</v>
       </c>
       <c r="B421">
-        <v>17.416956412957799</v>
+        <v>21.7793555862932</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422">
-        <v>64.804243554147803</v>
+        <v>27.894421482780299</v>
       </c>
       <c r="B422">
-        <v>59.499495314332897</v>
+        <v>17.416956412957799</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423">
-        <v>45.550291425989599</v>
+        <v>64.804243554147803</v>
       </c>
       <c r="B423">
-        <v>11.288757651515599</v>
+        <v>59.499495314332897</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424">
-        <v>27.796444251608602</v>
+        <v>45.550291425989599</v>
       </c>
       <c r="B424">
-        <v>47.218223329323401</v>
+        <v>11.288757651515599</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425">
-        <v>77.415368169154405</v>
+        <v>27.796444251608602</v>
       </c>
       <c r="B425">
-        <v>15.590141837409099</v>
+        <v>47.218223329323401</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426">
-        <v>25.1715422304576</v>
+        <v>77.415368169154405</v>
       </c>
       <c r="B426">
-        <v>22.346376879049402</v>
+        <v>15.590141837409099</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427">
-        <v>82.356988286832404</v>
+        <v>25.1715422304576</v>
       </c>
       <c r="B427">
-        <v>46.234919507470003</v>
+        <v>22.346376879049402</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428">
-        <v>37.886570736562703</v>
+        <v>82.356988286832404</v>
       </c>
       <c r="B428">
-        <v>12.410827372156801</v>
+        <v>46.234919507470003</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429">
-        <v>35.046160334359598</v>
+        <v>37.886570736562703</v>
       </c>
       <c r="B429">
-        <v>57.181374607282102</v>
+        <v>12.410827372156801</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430">
-        <v>65.702804358307205</v>
+        <v>35.046160334359598</v>
       </c>
       <c r="B430">
-        <v>12.6245510302276</v>
+        <v>57.181374607282102</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431">
-        <v>24.117425286102701</v>
+        <v>65.702804358307205</v>
       </c>
       <c r="B431">
-        <v>28.823123328313699</v>
+        <v>12.6245510302276</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432">
-        <v>89.802943326313894</v>
+        <v>24.117425286102701</v>
       </c>
       <c r="B432">
-        <v>32.037079622187697</v>
+        <v>28.823123328313699</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433">
-        <v>32.205362745003903</v>
+        <v>89.802943326313894</v>
       </c>
       <c r="B433">
-        <v>14.4403677721445</v>
+        <v>32.037079622187697</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434">
-        <v>47.245784521190203</v>
+        <v>32.205362745003903</v>
       </c>
       <c r="B434">
-        <v>62.659533829768201</v>
+        <v>14.4403677721445</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435">
-        <v>55.004798344539203</v>
+        <v>47.245784521190203</v>
       </c>
       <c r="B435">
-        <v>11.393649470726601</v>
+        <v>62.659533829768201</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436">
-        <v>24.819641946001902</v>
+        <v>55.004798344539203</v>
       </c>
       <c r="B436">
-        <v>37.1049329599917</v>
+        <v>11.393649470726601</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437">
+        <v>24.819641946001902</v>
+      </c>
+      <c r="B437">
+        <v>37.1049329599917</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438">
         <v>86.797684055103602</v>
       </c>
-      <c r="B437">
+      <c r="B438">
         <v>21.791580792484901</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
